--- a/2D视觉/bin/x64/Debug/MODEL/2.xlsx
+++ b/2D视觉/bin/x64/Debug/MODEL/2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t xml:space="preserve">运行顺序</t>
   </si>
@@ -27,13 +27,13 @@
     <t xml:space="preserve">拍照完成信号</t>
   </si>
   <si>
+    <t xml:space="preserve">光源亮度</t>
+  </si>
+  <si>
     <t xml:space="preserve">视觉算子编号</t>
   </si>
   <si>
-    <t xml:space="preserve">光源亮度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否存图</t>
+    <t xml:space="preserve">    是否存图</t>
   </si>
   <si>
     <t xml:space="preserve">工位</t>
@@ -45,19 +45,58 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
+    <t xml:space="preserve">M200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
   </si>
   <si>
     <t xml:space="preserve">False</t>
   </si>
   <si>
-    <t xml:space="preserve">工位编号</t>
+    <t xml:space="preserve">M202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">OK结果信号</t>
   </si>
   <si>
     <t xml:space="preserve">NG结果信号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M241</t>
   </si>
 </sst>
 </file>
@@ -145,25 +184,112 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
-        <v>11</v>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -181,13 +307,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -195,10 +321,21 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/2D视觉/bin/x64/Debug/MODEL/2.xlsx
+++ b/2D视觉/bin/x64/Debug/MODEL/2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t xml:space="preserve">运行顺序</t>
   </si>
@@ -54,33 +54,12 @@
     <t xml:space="preserve">150</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
     <t xml:space="preserve">True</t>
   </si>
   <si>
     <t xml:space="preserve">False</t>
   </si>
   <si>
-    <t xml:space="preserve">M202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
     <t xml:space="preserve">OK结果信号</t>
   </si>
   <si>
@@ -91,12 +70,6 @@
   </si>
   <si>
     <t xml:space="preserve">M240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M241</t>
   </si>
 </sst>
 </file>
@@ -193,103 +166,16 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -310,10 +196,10 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -321,21 +207,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/2D视觉/bin/x64/Debug/MODEL/2.xlsx
+++ b/2D视觉/bin/x64/Debug/MODEL/2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t xml:space="preserve">运行顺序</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t xml:space="preserve">150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">True</t>
@@ -166,16 +169,16 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -196,10 +199,10 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -207,10 +210,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/2D视觉/bin/x64/Debug/MODEL/2.xlsx
+++ b/2D视觉/bin/x64/Debug/MODEL/2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t xml:space="preserve">运行顺序</t>
   </si>
@@ -52,12 +52,6 @@
   </si>
   <si>
     <t xml:space="preserve">150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True</t>
   </si>
   <si>
     <t xml:space="preserve">False</t>
@@ -169,16 +163,16 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -199,10 +193,10 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -210,10 +204,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/2D视觉/bin/x64/Debug/MODEL/2.xlsx
+++ b/2D视觉/bin/x64/Debug/MODEL/2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t xml:space="preserve">运行顺序</t>
   </si>
@@ -54,7 +54,16 @@
     <t xml:space="preserve">150</t>
   </si>
   <si>
-    <t xml:space="preserve">False</t>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M202</t>
   </si>
   <si>
     <t xml:space="preserve">OK结果信号</t>
@@ -67,6 +76,12 @@
   </si>
   <si>
     <t xml:space="preserve">M240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M241</t>
   </si>
 </sst>
 </file>
@@ -163,16 +178,45 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -193,10 +237,10 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -204,10 +248,21 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/2D视觉/bin/x64/Debug/MODEL/2.xlsx
+++ b/2D视觉/bin/x64/Debug/MODEL/2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t xml:space="preserve">运行顺序</t>
   </si>
@@ -54,16 +54,22 @@
     <t xml:space="preserve">150</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
+    <t xml:space="preserve">300</t>
   </si>
   <si>
     <t xml:space="preserve">true</t>
   </si>
   <si>
+    <t xml:space="preserve">false</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">M202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200</t>
   </si>
   <si>
     <t xml:space="preserve">OK结果信号</t>
@@ -187,18 +193,18 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -207,16 +213,16 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
         <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -237,10 +243,10 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -248,21 +254,21 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/2D视觉/bin/x64/Debug/MODEL/2.xlsx
+++ b/2D视觉/bin/x64/Debug/MODEL/2.xlsx
@@ -204,7 +204,7 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -219,7 +219,7 @@
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>

--- a/2D视觉/bin/x64/Debug/MODEL/2.xlsx
+++ b/2D视觉/bin/x64/Debug/MODEL/2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t xml:space="preserve">运行顺序</t>
   </si>
@@ -54,13 +54,10 @@
     <t xml:space="preserve">150</t>
   </si>
   <si>
-    <t xml:space="preserve">300</t>
+    <t xml:space="preserve">1,300</t>
   </si>
   <si>
     <t xml:space="preserve">true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -193,15 +190,15 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -213,7 +210,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -222,7 +219,7 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -243,10 +240,10 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -254,21 +251,21 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/2D视觉/bin/x64/Debug/MODEL/2.xlsx
+++ b/2D视觉/bin/x64/Debug/MODEL/2.xlsx
@@ -54,7 +54,7 @@
     <t xml:space="preserve">150</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
+    <t xml:space="preserve">300</t>
   </si>
   <si>
     <t xml:space="preserve">True</t>

--- a/2D视觉/bin/x64/Debug/MODEL/2.xlsx
+++ b/2D视觉/bin/x64/Debug/MODEL/2.xlsx
@@ -45,10 +45,10 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">M200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M220</t>
+    <t xml:space="preserve">D200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D220</t>
   </si>
   <si>
     <t xml:space="preserve">150</t>
@@ -69,10 +69,10 @@
     <t xml:space="preserve">NG结果信号</t>
   </si>
   <si>
-    <t xml:space="preserve">M230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M240</t>
+    <t xml:space="preserve">D230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D240</t>
   </si>
 </sst>
 </file>

--- a/2D视觉/bin/x64/Debug/MODEL/2.xlsx
+++ b/2D视觉/bin/x64/Debug/MODEL/2.xlsx
@@ -45,10 +45,10 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">D200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D220</t>
+    <t xml:space="preserve">M200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M220</t>
   </si>
   <si>
     <t xml:space="preserve">150</t>
@@ -69,10 +69,10 @@
     <t xml:space="preserve">NG结果信号</t>
   </si>
   <si>
-    <t xml:space="preserve">D230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D240</t>
+    <t xml:space="preserve">M230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M240</t>
   </si>
 </sst>
 </file>

--- a/2D视觉/bin/x64/Debug/MODEL/2.xlsx
+++ b/2D视觉/bin/x64/Debug/MODEL/2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t xml:space="preserve">运行顺序</t>
   </si>
@@ -54,13 +54,19 @@
     <t xml:space="preserve">150</t>
   </si>
   <si>
-    <t xml:space="preserve">300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False</t>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M202</t>
   </si>
   <si>
     <t xml:space="preserve">OK结果信号</t>
@@ -73,6 +79,12 @@
   </si>
   <si>
     <t xml:space="preserve">M240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M241</t>
   </si>
 </sst>
 </file>
@@ -181,6 +193,35 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -199,10 +240,10 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -210,10 +251,21 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
